--- a/Data/DataV05.xlsx
+++ b/Data/DataV05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/martie_uiowa_edu/Documents/Work/ISRP/Project3/Wristband/WristBandProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{ECB4317F-515D-5044-8373-977208C134D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA779B7-24AF-0F4B-AF5C-33640593B3E3}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{ECB4317F-515D-5044-8373-977208C134D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5594FC7B-5776-415C-9E73-6E42153B21E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" firstSheet="2" activeTab="3" xr2:uid="{34119DCC-41EF-2944-AE07-4050D1842020}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="18540" activeTab="3" xr2:uid="{34119DCC-41EF-2944-AE07-4050D1842020}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="244">
   <si>
     <t>ST001</t>
   </si>
@@ -776,6 +776,12 @@
   <si>
     <t>Veff</t>
   </si>
+  <si>
+    <t>PCB52</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
 </sst>
 </file>
 
@@ -2128,6 +2134,409 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34421602414098906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48786193916942966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4341924683009516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47509663586527262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4653521449376663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A036-B544-BC06-94676862A9D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="690165439"/>
+        <c:axId val="732551167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="690165439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732551167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="732551167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690165439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3527,6 +3936,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB18+30 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3844,6 +4264,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3855,11 +4305,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$10</c:f>
+              <c:f>Sheet1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB8 </c:v>
+                  <c:v>PCB52</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3886,44 +4336,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32437980985811316"/>
+                  <c:y val="1.720919668660309E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
+              <c:f>Sheet1!$H$10:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
+                  <c:v>1.0256944444408873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.75</c:v>
+                  <c:v>2.03125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
+                  <c:v>3.0534722222218988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$10:$S$10</c:f>
+              <c:f>Sheet1!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.3435318567215413</c:v>
+                  <c:v>1.1881693383912524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5942092473375942</c:v>
+                  <c:v>2.2912567903483252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.667483185300179</c:v>
+                  <c:v>3.5081450038891129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2475897698446641</c:v>
+                  <c:v>4.0803821909508722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,616 +4432,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8452-114E-B493-8D0094A00579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB11 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$13:$S$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.86999549912661056</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88697314848846209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80512307013650442</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72058504918716537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8452-114E-B493-8D0094A00579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB15 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$16:$S$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.55218490564732159</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0038061285539401</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88381140050403295</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9892428527414483</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8452-114E-B493-8D0094A00579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB16 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$17:$T$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5213266844772052</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7103224890786815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.247230995201988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8069887434074641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3680632705372562</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8452-114E-B493-8D0094A00579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB17 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$18:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.52668307174626716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4443788497369106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1270625418991123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9499984610615482</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8452-114E-B493-8D0094A00579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB18+30 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$19:$S$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1277686248420584</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9892045205070406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4363272539694227</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9363612519620537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B2B-9749-A0CB-DE949862F742}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB20+28 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$21:$S$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.95429041325250363</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1895270577241752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6128364434583116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5325279009060853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B2B-9749-A0CB-DE949862F742}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB21+33 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$22:$S$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.8399725805382674</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8376938133148799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0792869824966695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9524537697799906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B2B-9749-A0CB-DE949862F742}"/>
+              <c16:uniqueId val="{00000001-DB58-4F26-B7AC-738F19B6FFF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4552,11 +4444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="690165439"/>
-        <c:axId val="732551167"/>
+        <c:axId val="2094548832"/>
+        <c:axId val="2094179888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="690165439"/>
+        <c:axId val="2094548832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,12 +4505,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732551167"/>
+        <c:crossAx val="2094179888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="732551167"/>
+        <c:axId val="2094179888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690165439"/>
+        <c:crossAx val="2094548832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4687,37 +4579,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4783,15 +4644,446 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$27</c:f>
+              <c:f>WD!$O$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB26+29 </c:v>
+                  <c:v>PCB8 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3435318567215413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5942092473375942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.667483185300179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2475897698446641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8452-114E-B493-8D0094A00579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB11 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86999549912661056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88697314848846209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80512307013650442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72058504918716537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8452-114E-B493-8D0094A00579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB15 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55218490564732159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0038061285539401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88381140050403295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9892428527414483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8452-114E-B493-8D0094A00579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB16 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5213266844772052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7103224890786815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.247230995201988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8069887434074641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3680632705372562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8452-114E-B493-8D0094A00579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB17 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52668307174626716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4443788497369106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1270625418991123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9499984610615482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8452-114E-B493-8D0094A00579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB18+30 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4820,10 +5112,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
+              <c:f>WD!$P$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.616666666581295</c:v>
                 </c:pt>
@@ -4835,33 +5127,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$27:$T$27</c:f>
+              <c:f>WD!$P$19:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.31267107944072492</c:v>
+                  <c:v>1.1277686248420584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5544327825061367</c:v>
+                  <c:v>2.9892045205070406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76548074359653961</c:v>
+                  <c:v>4.4363272539694227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76426535920310545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50870508776363599</c:v>
+                  <c:v>4.9363612519620537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,20 +5155,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C098-D247-870F-BFE522E95BE2}"/>
+              <c16:uniqueId val="{00000000-7B2B-9749-A0CB-DE949862F742}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="1"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$34</c:f>
+              <c:f>WD!$O$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB37 </c:v>
+                  <c:v>PCB20+28 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4915,10 +5201,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
+              <c:f>WD!$P$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.616666666581295</c:v>
                 </c:pt>
@@ -4930,33 +5216,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$34:$T$34</c:f>
+              <c:f>WD!$P$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.29561402686310878</c:v>
+                  <c:v>0.95429041325250363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51610421375439974</c:v>
+                  <c:v>2.1895270577241752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59502365964120629</c:v>
+                  <c:v>2.6128364434583116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64946402103828249</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57518629547971711</c:v>
+                  <c:v>3.5325279009060853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,20 +5244,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C098-D247-870F-BFE522E95BE2}"/>
+              <c16:uniqueId val="{00000001-7B2B-9749-A0CB-DE949862F742}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="2"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$29</c:f>
+              <c:f>WD!$O$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB31 </c:v>
+                  <c:v>PCB21+33 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5031,21 +5311,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$29:$S$29</c:f>
+              <c:f>WD!$P$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4924876953765649</c:v>
+                  <c:v>0.8399725805382674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2241765678799683</c:v>
+                  <c:v>1.8376938133148799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7343012675062042</c:v>
+                  <c:v>2.0792869824966695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3044381872311677</c:v>
+                  <c:v>2.9524537697799906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5053,268 +5333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C098-D247-870F-BFE522E95BE2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB40+71 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$37:$S$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0785491636836135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2521111516393719</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7771364462710122</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6999930675203276</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C098-D247-870F-BFE522E95BE2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB42 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$39:$T$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.80740063587907962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6027568647244856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9581930622030872</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3411086555516114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3696168531187387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C098-D247-870F-BFE522E95BE2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB44+47+65 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$41:$S$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.4917397699633845</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.049016566002043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.602710336800246</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.762940542283136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-C098-D247-870F-BFE522E95BE2}"/>
+              <c16:uniqueId val="{00000002-7B2B-9749-A0CB-DE949862F742}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5557,15 +5576,290 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$45</c:f>
+              <c:f>WD!$O$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB49+69 </c:v>
+                  <c:v>PCB26+29 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$27:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31267107944072492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5544327825061367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76548074359653961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76426535920310545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50870508776363599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C098-D247-870F-BFE522E95BE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB37 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$34:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29561402686310878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51610421375439974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59502365964120629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64946402103828249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57518629547971711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C098-D247-870F-BFE522E95BE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB31 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$29:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4924876953765649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2241765678799683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7343012675062042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3044381872311677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C098-D247-870F-BFE522E95BE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB40+71 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5615,21 +5909,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$45:$S$45</c:f>
+              <c:f>WD!$P$37:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2729797507886653</c:v>
+                  <c:v>1.0785491636836135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3786198597346004</c:v>
+                  <c:v>2.2521111516393719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.806603932808367</c:v>
+                  <c:v>2.7771364462710122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.079890339340189</c:v>
+                  <c:v>2.6999930675203276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,20 +5931,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6596-024B-AC33-D1C03DE1E37D}"/>
+              <c16:uniqueId val="{00000008-C098-D247-870F-BFE522E95BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$48</c:f>
+              <c:f>WD!$O$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB54 </c:v>
+                  <c:v>PCB42 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5703,24 +5997,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$48:$T$48</c:f>
+              <c:f>WD!$P$39:$T$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10025914583510206</c:v>
+                  <c:v>0.80740063587907962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13522329345611339</c:v>
+                  <c:v>1.6027568647244856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13883323990650659</c:v>
+                  <c:v>1.9581930622030872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10800695565057601</c:v>
+                  <c:v>2.3411086555516114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.828014062291599E-2</c:v>
+                  <c:v>1.3696168531187387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,20 +6022,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6596-024B-AC33-D1C03DE1E37D}"/>
+              <c16:uniqueId val="{00000009-C098-D247-870F-BFE522E95BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$56</c:f>
+              <c:f>WD!$O$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB63</c:v>
+                  <c:v>PCB44+47+65 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5791,21 +6085,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$56:$S$56</c:f>
+              <c:f>WD!$P$41:$S$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17247418413658858</c:v>
+                  <c:v>7.4917397699633845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3201495712813559</c:v>
+                  <c:v>15.049016566002043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3794070329856985</c:v>
+                  <c:v>17.602710336800246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36347395414436712</c:v>
+                  <c:v>20.762940542283136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5813,183 +6107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6596-024B-AC33-D1C03DE1E37D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB66 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$58:$T$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9354867922930898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6591589114103371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5992601808273958</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3335396775056898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3020701450551209</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6596-024B-AC33-D1C03DE1E37D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WD!$O$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCB67 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24.616666666581295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.283333333325572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WD!$P$59:$S$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.14637647283672947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18931017930873706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22383030779460833</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1808912683410222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6596-024B-AC33-D1C03DE1E37D}"/>
+              <c16:uniqueId val="{0000000A-C098-D247-870F-BFE522E95BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6236,11 +6354,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$69</c:f>
+              <c:f>WD!$O$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB83 </c:v>
+                  <c:v>PCB49+69 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6290,21 +6408,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$69:$S$69</c:f>
+              <c:f>WD!$P$45:$S$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.2151017436954319</c:v>
+                  <c:v>4.2729797507886653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2478773503295568</c:v>
+                  <c:v>9.3786198597346004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6056819150225978</c:v>
+                  <c:v>10.806603932808367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5377413437340066</c:v>
+                  <c:v>13.079890339340189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6312,7 +6430,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2ABE-0348-A3DC-B17C5B809221}"/>
+              <c16:uniqueId val="{00000006-6596-024B-AC33-D1C03DE1E37D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6321,11 +6439,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$71</c:f>
+              <c:f>WD!$O$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB85+116 </c:v>
+                  <c:v>PCB54 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6354,10 +6472,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
+              <c:f>WD!$P$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24.616666666581295</c:v>
                 </c:pt>
@@ -6369,27 +6487,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$71:$S$71</c:f>
+              <c:f>WD!$P$48:$T$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78739440710407238</c:v>
+                  <c:v>0.10025914583510206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8700308868106172</c:v>
+                  <c:v>0.13522329345611339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.13883447669311</c:v>
+                  <c:v>0.13883323990650659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7867296244020299</c:v>
+                  <c:v>0.10800695565057601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.828014062291599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6397,7 +6521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2ABE-0348-A3DC-B17C5B809221}"/>
+              <c16:uniqueId val="{00000007-6596-024B-AC33-D1C03DE1E37D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6406,11 +6530,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$72</c:f>
+              <c:f>WD!$O$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB86+97+109+119 </c:v>
+                  <c:v>PCB63</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6460,21 +6584,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$72:$S$72</c:f>
+              <c:f>WD!$P$56:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0690260841416248</c:v>
+                  <c:v>0.17247418413658858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3064653208819301</c:v>
+                  <c:v>0.3201495712813559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8594243955942424</c:v>
+                  <c:v>0.3794070329856985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6456987296957202</c:v>
+                  <c:v>0.36347395414436712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6482,7 +6606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2ABE-0348-A3DC-B17C5B809221}"/>
+              <c16:uniqueId val="{00000008-6596-024B-AC33-D1C03DE1E37D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6491,11 +6615,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$73</c:f>
+              <c:f>WD!$O$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB87+125 </c:v>
+                  <c:v>PCB66 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6524,10 +6648,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$S$1</c:f>
+              <c:f>WD!$P$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24.616666666581295</c:v>
                 </c:pt>
@@ -6539,27 +6663,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.633333333302289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$73:$S$73</c:f>
+              <c:f>WD!$P$58:$T$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.1963460989477674</c:v>
+                  <c:v>1.9354867922930898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4479707988771437</c:v>
+                  <c:v>3.6591589114103371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2600125856332127</c:v>
+                  <c:v>4.5992601808273958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2549406984691007</c:v>
+                  <c:v>5.3335396775056898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3020701450551209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,7 +6697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2ABE-0348-A3DC-B17C5B809221}"/>
+              <c16:uniqueId val="{00000009-6596-024B-AC33-D1C03DE1E37D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6576,11 +6706,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$74</c:f>
+              <c:f>WD!$O$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB88 </c:v>
+                  <c:v>PCB67 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6630,21 +6760,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$74:$S$74</c:f>
+              <c:f>WD!$P$59:$S$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0599355922683513</c:v>
+                  <c:v>0.14637647283672947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1185628755164281</c:v>
+                  <c:v>0.18931017930873706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6971039161106116</c:v>
+                  <c:v>0.22383030779460833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4370588632334536</c:v>
+                  <c:v>0.1808912683410222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6652,7 +6782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2ABE-0348-A3DC-B17C5B809221}"/>
+              <c16:uniqueId val="{0000000A-6596-024B-AC33-D1C03DE1E37D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6899,11 +7029,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$77</c:f>
+              <c:f>WD!$O$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB91 </c:v>
+                  <c:v>PCB83 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6953,21 +7083,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$77:$S$77</c:f>
+              <c:f>WD!$P$69:$S$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.69708193122181261</c:v>
+                  <c:v>1.2151017436954319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8680631900414288</c:v>
+                  <c:v>3.2478773503295568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5784235510574054</c:v>
+                  <c:v>5.6056819150225978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5880140831569425</c:v>
+                  <c:v>3.5377413437340066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6975,7 +7105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5713-5741-BFB6-1C87CE825F6C}"/>
+              <c16:uniqueId val="{00000005-2ABE-0348-A3DC-B17C5B809221}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6984,11 +7114,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$79</c:f>
+              <c:f>WD!$O$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB93+100 </c:v>
+                  <c:v>PCB85+116 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7038,21 +7168,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$79:$S$79</c:f>
+              <c:f>WD!$P$71:$S$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23164528398538395</c:v>
+                  <c:v>0.78739440710407238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70438778928299284</c:v>
+                  <c:v>2.8700308868106172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97787721797295435</c:v>
+                  <c:v>6.13883447669311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93442608579045905</c:v>
+                  <c:v>4.7867296244020299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7060,7 +7190,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5713-5741-BFB6-1C87CE825F6C}"/>
+              <c16:uniqueId val="{00000006-2ABE-0348-A3DC-B17C5B809221}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7069,11 +7199,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$82</c:f>
+              <c:f>WD!$O$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB96 </c:v>
+                  <c:v>PCB86+97+109+119 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7123,21 +7253,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$82:$S$82</c:f>
+              <c:f>WD!$P$72:$S$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17005487795920526</c:v>
+                  <c:v>2.0690260841416248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42775361652310989</c:v>
+                  <c:v>6.3064653208819301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35453473935799312</c:v>
+                  <c:v>7.8594243955942424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43788798124573075</c:v>
+                  <c:v>7.6456987296957202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7145,7 +7275,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5713-5741-BFB6-1C87CE825F6C}"/>
+              <c16:uniqueId val="{00000007-2ABE-0348-A3DC-B17C5B809221}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7154,11 +7284,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$85</c:f>
+              <c:f>WD!$O$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB102 </c:v>
+                  <c:v>PCB87+125 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7208,21 +7338,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$85:$S$85</c:f>
+              <c:f>WD!$P$73:$S$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3479254854150729</c:v>
+                  <c:v>4.1963460989477674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84370339917772519</c:v>
+                  <c:v>4.4479707988771437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58234525634265388</c:v>
+                  <c:v>5.2600125856332127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97235987027684612</c:v>
+                  <c:v>7.2549406984691007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7230,7 +7360,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5713-5741-BFB6-1C87CE825F6C}"/>
+              <c16:uniqueId val="{00000008-2ABE-0348-A3DC-B17C5B809221}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7239,11 +7369,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$93</c:f>
+              <c:f>WD!$O$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB111 </c:v>
+                  <c:v>PCB88 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7293,21 +7423,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$93:$S$93</c:f>
+              <c:f>WD!$P$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4990762422159499E-2</c:v>
+                  <c:v>1.0599355922683513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12116482453989791</c:v>
+                  <c:v>2.1185628755164281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11907228846791892</c:v>
+                  <c:v>2.6971039161106116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17630189305978258</c:v>
+                  <c:v>2.4370588632334536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7315,7 +7445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5713-5741-BFB6-1C87CE825F6C}"/>
+              <c16:uniqueId val="{00000009-2ABE-0348-A3DC-B17C5B809221}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7551,36 +7681,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -7588,15 +7688,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WD!$O$3</c:f>
+              <c:f>WD!$O$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCB1 </c:v>
+                  <c:v>PCB91 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7613,66 +7713,22 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>WD!$P$1:$T$1</c:f>
+              <c:f>WD!$P$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.616666666581295</c:v>
                 </c:pt>
@@ -7684,33 +7740,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.633333333302289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WD!$P$3:$T$3</c:f>
+              <c:f>WD!$P$77:$S$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.34421602414098906</c:v>
+                  <c:v>0.69708193122181261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48786193916942966</c:v>
+                  <c:v>1.8680631900414288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4341924683009516</c:v>
+                  <c:v>2.5784235510574054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47509663586527262</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4653521449376663</c:v>
+                  <c:v>2.5880140831569425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7718,7 +7768,347 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A036-B544-BC06-94676862A9D5}"/>
+              <c16:uniqueId val="{00000005-5713-5741-BFB6-1C87CE825F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB93+100 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$79:$S$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23164528398538395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70438778928299284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97787721797295435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93442608579045905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5713-5741-BFB6-1C87CE825F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB96 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$82:$S$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17005487795920526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42775361652310989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35453473935799312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43788798124573075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5713-5741-BFB6-1C87CE825F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB102 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$85:$S$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3479254854150729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84370339917772519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58234525634265388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97235987027684612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5713-5741-BFB6-1C87CE825F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WD!$O$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCB111 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WD!$P$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.616666666581295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.283333333325572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WD!$P$93:$S$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4990762422159499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12116482453989791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11907228846791892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17630189305978258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5713-5741-BFB6-1C87CE825F6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7941,6 +8331,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8784,6 +9214,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13003,16 +13949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>583465</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>719667</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195102</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13032,6 +13978,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>97183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BB5240-F7C7-40DC-9A5B-2A6402266B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23206,14 +24190,14 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="12.83203125" customWidth="1"/>
     <col min="14" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -23260,7 +24244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -23314,7 +24298,7 @@
         <v>44444.75</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -23368,7 +24352,7 @@
         <v>44445.770833333336</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -23436,7 +24420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -23465,7 +24449,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -23495,7 +24479,7 @@
         <v>3.6750000000087311</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -23503,12 +24487,12 @@
         <v>4.4470000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
@@ -23525,7 +24509,7 @@
         <v>24.633333333302289</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
@@ -23542,7 +24526,7 @@
         <v>24.116666666697711</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
@@ -23559,7 +24543,7 @@
         <v>24.650000000023283</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
@@ -23576,12 +24560,12 @@
         <v>24.099999999976717</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
@@ -23598,7 +24582,7 @@
         <v>49.283333333325572</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J15" s="1" t="s">
         <v>18</v>
       </c>
@@ -23615,7 +24599,7 @@
         <v>48.216666666674428</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J16" s="1" t="s">
         <v>30</v>
       </c>
@@ -23641,16 +24625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D699FE18-D5EC-8442-931D-6A6DB2F5FCDC}">
   <dimension ref="A2:N175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" t="str">
         <f>[1]Summary!L2</f>
         <v>PUF001</v>
@@ -23686,7 +24670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23734,7 +24718,7 @@
         <v>0.17519123849702756</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -23782,7 +24766,7 @@
         <v>1.4142135623730954</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -23830,7 +24814,7 @@
         <v>0.19289825232229479</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23878,7 +24862,7 @@
         <v>5.2497556580542691E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23926,7 +24910,7 @@
         <v>0.14701571791925411</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23974,7 +24958,7 @@
         <v>6.873838168321264E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -24022,7 +25006,7 @@
         <v>6.2128042247648632E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -24070,7 +25054,7 @@
         <v>7.5074896347227457E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -24118,7 +25102,7 @@
         <v>4.6290735296581911E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -24166,7 +25150,7 @@
         <v>7.9490849124498868E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -24214,7 +25198,7 @@
         <v>6.5552459362321042E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -24262,7 +25246,7 @@
         <v>6.7257852334646179E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24310,7 +25294,7 @@
         <v>9.1399406191225357E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24358,7 +25342,7 @@
         <v>0.10597225751102488</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24406,7 +25390,7 @@
         <v>9.5980482762671085E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -24454,7 +25438,7 @@
         <v>7.3303943434243263E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>50</v>
       </c>
@@ -24502,7 +25486,7 @@
         <v>6.1437848800947749E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -24550,7 +25534,7 @@
         <v>1.6698673523779677E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
@@ -24598,7 +25582,7 @@
         <v>9.3270055694089624E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>55</v>
       </c>
@@ -24646,7 +25630,7 @@
         <v>0.16876765990089723</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24694,7 +25678,7 @@
         <v>8.7476405291907006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24742,7 +25726,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24790,7 +25774,7 @@
         <v>0.51258237704444343</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24838,7 +25822,7 @@
         <v>0.18650873152346581</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -24886,7 +25870,7 @@
         <v>0.13804570421433054</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24934,7 +25918,7 @@
         <v>3.0563499355458833E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>31</v>
       </c>
@@ -24982,7 +25966,7 @@
         <v>8.5865696879145692E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>32</v>
       </c>
@@ -25030,7 +26014,7 @@
         <v>2.5984258044571409E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>34</v>
       </c>
@@ -25078,7 +26062,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>35</v>
       </c>
@@ -25126,7 +26110,7 @@
         <v>0.30703850963038476</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>36</v>
       </c>
@@ -25174,7 +26158,7 @@
         <v>5.8752561991452443E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>37</v>
       </c>
@@ -25222,7 +26206,7 @@
         <v>0.12507238654127942</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>38</v>
       </c>
@@ -25270,7 +26254,7 @@
         <v>0.33592611277125262</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>39</v>
       </c>
@@ -25318,7 +26302,7 @@
         <v>8.0472729561084838E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
@@ -25366,7 +26350,7 @@
         <v>6.6022980935173184E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>41</v>
       </c>
@@ -25414,7 +26398,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>42</v>
       </c>
@@ -25462,7 +26446,7 @@
         <v>5.5116160620973367E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>43</v>
       </c>
@@ -25510,7 +26494,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
@@ -25558,7 +26542,7 @@
         <v>1.2772838874199619E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
@@ -25606,7 +26590,7 @@
         <v>2.7959527139966049E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>46</v>
       </c>
@@ -25654,7 +26638,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>48</v>
       </c>
@@ -25702,7 +26686,7 @@
         <v>3.4034521888235097E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>83</v>
       </c>
@@ -25750,7 +26734,7 @@
         <v>1.9412378391549488E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>85</v>
       </c>
@@ -25798,7 +26782,7 @@
         <v>5.3737704343970495E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>52</v>
       </c>
@@ -25846,7 +26830,7 @@
         <v>8.1241077347967844E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>54</v>
       </c>
@@ -25894,7 +26878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>55</v>
       </c>
@@ -25942,7 +26926,7 @@
         <v>0.14893466234789723</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>56</v>
       </c>
@@ -25990,7 +26974,7 @@
         <v>6.8370017430398292E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>57</v>
       </c>
@@ -26038,7 +27022,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>58</v>
       </c>
@@ -26086,7 +27070,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>93</v>
       </c>
@@ -26134,7 +27118,7 @@
         <v>1.7446635427410821E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>60</v>
       </c>
@@ -26182,7 +27166,7 @@
         <v>0.20127078980502722</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>96</v>
       </c>
@@ -26230,7 +27214,7 @@
         <v>8.5619647910971111E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>63</v>
       </c>
@@ -26278,7 +27262,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>64</v>
       </c>
@@ -26326,7 +27310,7 @@
         <v>2.466642250441901E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>66</v>
       </c>
@@ -26374,7 +27358,7 @@
         <v>9.467940188485921E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>67</v>
       </c>
@@ -26422,7 +27406,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>68</v>
       </c>
@@ -26470,7 +27454,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>72</v>
       </c>
@@ -26518,7 +27502,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>73</v>
       </c>
@@ -26566,7 +27550,7 @@
         <v>6.064483317393473E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>77</v>
       </c>
@@ -26614,7 +27598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>78</v>
       </c>
@@ -26662,7 +27646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>79</v>
       </c>
@@ -26710,7 +27694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>80</v>
       </c>
@@ -26758,7 +27742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>81</v>
       </c>
@@ -26806,7 +27790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>82</v>
       </c>
@@ -26854,7 +27838,7 @@
         <v>6.0130889649752323E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>83</v>
       </c>
@@ -26902,7 +27886,7 @@
         <v>0.25521578740534806</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>84</v>
       </c>
@@ -26950,7 +27934,7 @@
         <v>0.19083100781454834</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -26998,7 +27982,7 @@
         <v>0.34854417252698805</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>115</v>
       </c>
@@ -27046,7 +28030,7 @@
         <v>0.21362616951829635</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>117</v>
       </c>
@@ -27094,7 +28078,7 @@
         <v>4.501487862041921E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>88</v>
       </c>
@@ -27142,7 +28126,7 @@
         <v>0.27756869926657218</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>89</v>
       </c>
@@ -27190,7 +28174,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>121</v>
       </c>
@@ -27238,7 +28222,7 @@
         <v>1.9283892385429338E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>91</v>
       </c>
@@ -27286,7 +28270,7 @@
         <v>0.15082809312371609</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>92</v>
       </c>
@@ -27334,7 +28318,7 @@
         <v>6.3984267153338228E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>125</v>
       </c>
@@ -27382,7 +28366,7 @@
         <v>0.21525440465694146</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>94</v>
       </c>
@@ -27430,7 +28414,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>95</v>
       </c>
@@ -27478,7 +28462,7 @@
         <v>0.14729071625591733</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>96</v>
       </c>
@@ -27526,7 +28510,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>98</v>
       </c>
@@ -27574,7 +28558,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>99</v>
       </c>
@@ -27622,7 +28606,7 @@
         <v>0.10339571131268001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>102</v>
       </c>
@@ -27670,7 +28654,7 @@
         <v>0.38703566679907103</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>103</v>
       </c>
@@ -27718,7 +28702,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>104</v>
       </c>
@@ -27766,7 +28750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>105</v>
       </c>
@@ -27814,7 +28798,7 @@
         <v>8.1286951268931276E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>106</v>
       </c>
@@ -27862,7 +28846,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>107</v>
       </c>
@@ -27910,7 +28894,7 @@
         <v>5.3465488647261375E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>138</v>
       </c>
@@ -27958,7 +28942,7 @@
         <v>3.0580128332268419E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>110</v>
       </c>
@@ -28006,7 +28990,7 @@
         <v>2.2547595399633292E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>111</v>
       </c>
@@ -28054,7 +29038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>112</v>
       </c>
@@ -28102,7 +29086,7 @@
         <v>0.59032137334258294</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>114</v>
       </c>
@@ -28150,7 +29134,7 @@
         <v>0.74737467963818649</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>115</v>
       </c>
@@ -28198,7 +29182,7 @@
         <v>0.20968965757898034</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>117</v>
       </c>
@@ -28246,7 +29230,7 @@
         <v>0.233341722323714</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>118</v>
       </c>
@@ -28294,7 +29278,7 @@
         <v>0.10221917671037782</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>120</v>
       </c>
@@ -28342,7 +29326,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>121</v>
       </c>
@@ -28390,7 +29374,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>122</v>
       </c>
@@ -28438,7 +29422,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>123</v>
       </c>
@@ -28486,7 +29470,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>126</v>
       </c>
@@ -28534,7 +29518,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>127</v>
       </c>
@@ -28582,7 +29566,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
@@ -28630,7 +29614,7 @@
         <v>0.16418635849737626</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>155</v>
       </c>
@@ -28678,7 +29662,7 @@
         <v>0.17987549908479203</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>130</v>
       </c>
@@ -28726,7 +29710,7 @@
         <v>0.22570100570235888</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>131</v>
       </c>
@@ -28774,7 +29758,7 @@
         <v>0.24284934587177012</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>132</v>
       </c>
@@ -28822,7 +29806,7 @@
         <v>0.27809801749052454</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>133</v>
       </c>
@@ -28870,7 +29854,7 @@
         <v>0.31177854249325954</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>134</v>
       </c>
@@ -28918,7 +29902,7 @@
         <v>0.26170266490828664</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>162</v>
       </c>
@@ -28966,7 +29950,7 @@
         <v>0.26147748969778523</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>136</v>
       </c>
@@ -29014,7 +29998,7 @@
         <v>0.23970956195333626</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>137</v>
       </c>
@@ -29062,7 +30046,7 @@
         <v>0.30967620503260895</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>166</v>
       </c>
@@ -29110,7 +30094,7 @@
         <v>0.26392879403836073</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>141</v>
       </c>
@@ -29158,7 +30142,7 @@
         <v>7.831061157534705E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>142</v>
       </c>
@@ -29206,7 +30190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>143</v>
       </c>
@@ -29254,7 +30238,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>144</v>
       </c>
@@ -29302,7 +30286,7 @@
         <v>0.25403576081396734</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>145</v>
       </c>
@@ -29350,7 +30334,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>146</v>
       </c>
@@ -29398,7 +30382,7 @@
         <v>0.26538603367594671</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>174</v>
       </c>
@@ -29446,7 +30430,7 @@
         <v>0.28096708054330766</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>148</v>
       </c>
@@ -29494,7 +30478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>150</v>
       </c>
@@ -29542,7 +30526,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>152</v>
       </c>
@@ -29590,7 +30574,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>179</v>
       </c>
@@ -29638,7 +30622,7 @@
         <v>0.18338751733431516</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>154</v>
       </c>
@@ -29686,7 +30670,7 @@
         <v>0.1713883243207294</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>155</v>
       </c>
@@ -29734,7 +30718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>183</v>
       </c>
@@ -29782,7 +30766,7 @@
         <v>0.17146614841096697</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>158</v>
       </c>
@@ -29830,7 +30814,7 @@
         <v>0.12193958101802047</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>159</v>
       </c>
@@ -29878,7 +30862,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>160</v>
       </c>
@@ -29926,7 +30910,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>161</v>
       </c>
@@ -29974,7 +30958,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>162</v>
       </c>
@@ -30022,7 +31006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>164</v>
       </c>
@@ -30070,7 +31054,7 @@
         <v>2.4395563580618822E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>165</v>
       </c>
@@ -30118,7 +31102,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>167</v>
       </c>
@@ -30166,7 +31150,7 @@
         <v>0.17408996742536831</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>169</v>
       </c>
@@ -30214,7 +31198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>170</v>
       </c>
@@ -30262,7 +31246,7 @@
         <v>0.10937352419140833</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>195</v>
       </c>
@@ -30310,7 +31294,7 @@
         <v>0.10034785339004589</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>172</v>
       </c>
@@ -30358,7 +31342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>174</v>
       </c>
@@ -30406,7 +31390,7 @@
         <v>6.5761234916299344E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>175</v>
       </c>
@@ -30454,7 +31438,7 @@
         <v>0.28713126690620561</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>176</v>
       </c>
@@ -30502,7 +31486,7 @@
         <v>0.11545035662524006</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>177</v>
       </c>
@@ -30550,7 +31534,7 @@
         <v>0.19308335505581012</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>178</v>
       </c>
@@ -30598,7 +31582,7 @@
         <v>5.1946666388409148E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>179</v>
       </c>
@@ -30646,7 +31630,7 @@
         <v>0.22519155817658837</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>204</v>
       </c>
@@ -30694,7 +31678,7 @@
         <v>0.1779902037995626</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>181</v>
       </c>
@@ -30742,7 +31726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>182</v>
       </c>
@@ -30790,7 +31774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>183</v>
       </c>
@@ -30838,7 +31822,7 @@
         <v>0.17949417610485552</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>184</v>
       </c>
@@ -30886,7 +31870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>185</v>
       </c>
@@ -30934,7 +31918,7 @@
         <v>0.40341638186895912</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>186</v>
       </c>
@@ -30982,7 +31966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>187</v>
       </c>
@@ -31030,7 +32014,7 @@
         <v>0.16614587857857605</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>188</v>
       </c>
@@ -31078,7 +32062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>189</v>
       </c>
@@ -31126,7 +32110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>190</v>
       </c>
@@ -31174,7 +32158,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>191</v>
       </c>
@@ -31222,7 +32206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>192</v>
       </c>
@@ -31270,7 +32254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>194</v>
       </c>
@@ -31318,7 +32302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>195</v>
       </c>
@@ -31366,7 +32350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>196</v>
       </c>
@@ -31414,7 +32398,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>197</v>
       </c>
@@ -31462,7 +32446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>222</v>
       </c>
@@ -31510,7 +32494,7 @@
         <v>7.8434828497982889E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>200</v>
       </c>
@@ -31558,7 +32542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>201</v>
       </c>
@@ -31605,7 +32589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>202</v>
       </c>
@@ -31653,7 +32637,7 @@
         <v>0.12249472788888867</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>203</v>
       </c>
@@ -31701,7 +32685,7 @@
         <v>3.0280254692177343E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>205</v>
       </c>
@@ -31749,7 +32733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>206</v>
       </c>
@@ -31797,7 +32781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>207</v>
       </c>
@@ -31845,7 +32829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>208</v>
       </c>
@@ -31893,7 +32877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>209</v>
       </c>
@@ -31941,7 +32925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B175">
         <f>+SUM(B3:B174)</f>
         <v>767.96536228510922</v>
@@ -31982,15 +32966,15 @@
   <dimension ref="A1:FQ3"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:173" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f t="array" ref="A1:FQ3">TRANSPOSE('PUF (2)'!I2:K174)</f>
         <v>Concentration (ng/m3)</v>
@@ -32512,7 +33496,7 @@
         <v xml:space="preserve">PCB209 </v>
       </c>
     </row>
-    <row r="2" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:173" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <v>PUF001</v>
       </c>
@@ -33033,7 +34017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:173" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>PUF005</v>
       </c>
@@ -33561,20 +34545,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5513E-F91B-6246-A71B-2923047B1DB6}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
+      <c r="E2" t="str">
+        <f>+B2</f>
+        <v xml:space="preserve">PCB18+30 </v>
       </c>
       <c r="F2" t="s">
         <v>241</v>
@@ -33583,7 +34568,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2.2546736766380748</v>
       </c>
@@ -33602,7 +34587,7 @@
         <v>1.0256944444408873</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2.4594708193587764</v>
       </c>
@@ -33621,7 +34606,7 @@
         <v>2.03125</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <f>AVERAGE(B3:B4)</f>
         <v>2.3570722479984259</v>
@@ -33644,7 +34629,7 @@
         <v>3.0534722222218988</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E6">
         <v>4.9363612519620537</v>
       </c>
@@ -33657,6 +34642,115 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
+        <v>4.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="str">
+        <f>+B9</f>
+        <v>PCB52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>+'PUF (2)'!$L$47</f>
+        <v>33.031529737301057</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10">
+        <f>+WDROT!AU2</f>
+        <v>39.247050834019973</v>
+      </c>
+      <c r="F10">
+        <f>E10/B10</f>
+        <v>1.1881693383912524</v>
+      </c>
+      <c r="G10">
+        <f>+G3</f>
+        <v>24.616666666581295</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H13" si="2">G10/24</f>
+        <v>1.0256944444408873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f>+'PUF (2)'!$L$47</f>
+        <v>33.031529737301057</v>
+      </c>
+      <c r="E11">
+        <f>+WDROT!AU3</f>
+        <v>75.683716806183682</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F13" si="3">E11/B11</f>
+        <v>2.2912567903483252</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">+G4</f>
+        <v>48.75</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2.03125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>+'PUF (2)'!$L$47</f>
+        <v>33.031529737301057</v>
+      </c>
+      <c r="E12">
+        <f>+WDROT!AU4</f>
+        <v>115.87939601872736</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.5081450038891129</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>73.283333333325572</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3.0534722222218988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <f>+'PUF (2)'!$L$47</f>
+        <v>33.031529737301057</v>
+      </c>
+      <c r="E13">
+        <f>+WDROT!AU5</f>
+        <v>134.78126567994738</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4.0803821909508722</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>97.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>4.0625</v>
       </c>
     </row>
@@ -33677,9 +34771,9 @@
       <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -33731,7 +34825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -33816,7 +34910,7 @@
         <v>Mix003</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'PUF (2)'!A3</f>
         <v>1</v>
@@ -33918,7 +35012,7 @@
         <v>0.5683925399717199</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'PUF (2)'!A4</f>
         <v>2</v>
@@ -34020,7 +35114,7 @@
         <v>3.2071371862377462E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'PUF (2)'!A5</f>
         <v>3</v>
@@ -34122,7 +35216,7 @@
         <v>0.1568986882444032</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'PUF (2)'!A6</f>
         <v>4</v>
@@ -34224,7 +35318,7 @@
         <v>2.8050709458622709</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>'PUF (2)'!A7</f>
         <v>5</v>
@@ -34326,7 +35420,7 @@
         <v>0.31011564445412149</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>'PUF (2)'!A8</f>
         <v>6</v>
@@ -34428,7 +35522,7 @@
         <v>1.426211971142044</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>'PUF (2)'!A9</f>
         <v>7</v>
@@ -34530,7 +35624,7 @@
         <v>0.46609179340913709</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>'PUF (2)'!A10</f>
         <v>8</v>
@@ -34632,7 +35726,7 @@
         <v>6.1450529138664063</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>'PUF (2)'!A11</f>
         <v>9</v>
@@ -34734,7 +35828,7 @@
         <v>0.44939724977238832</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>'PUF (2)'!A12</f>
         <v>10</v>
@@ -34836,7 +35930,7 @@
         <v>0.28245644576841294</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>'PUF (2)'!A13</f>
         <v>11</v>
@@ -34938,7 +36032,7 @@
         <v>1.2228346937915004</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'PUF (2)'!A14</f>
         <v>12+13</v>
@@ -35040,7 +36134,7 @@
         <v>0.7428285493293193</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>'PUF (2)'!A15</f>
         <v>14</v>
@@ -35142,7 +36236,7 @@
         <v>0.12671724676945403</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>'PUF (2)'!A16</f>
         <v>15</v>
@@ -35244,7 +36338,7 @@
         <v>1.2809460049181001</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>'PUF (2)'!A17</f>
         <v>16</v>
@@ -35346,7 +36440,7 @@
         <v>2.8774524812725062</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>'PUF (2)'!A18</f>
         <v>17</v>
@@ -35448,7 +36542,7 @@
         <v>3.2201549284438715</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>'PUF (2)'!A19</f>
         <v>18+30</v>
@@ -35550,7 +36644,7 @@
         <v>7.3641261623094989</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>'PUF (2)'!A20</f>
         <v>19</v>
@@ -35652,7 +36746,7 @@
         <v>0.93234092190957096</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>'PUF (2)'!A21</f>
         <v>20+28</v>
@@ -35754,7 +36848,7 @@
         <v>5.2842237701017858</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>'PUF (2)'!A22</f>
         <v>21+33</v>
@@ -35856,7 +36950,7 @@
         <v>4.6601250247506449</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>'PUF (2)'!A23</f>
         <v>22</v>
@@ -35958,7 +37052,7 @@
         <v>2.2622059996341823</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>'PUF (2)'!A24</f>
         <v>23</v>
@@ -36060,7 +37154,7 @@
         <v>4.9086580012803076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>'PUF (2)'!A25</f>
         <v>24</v>
@@ -36162,7 +37256,7 @@
         <v>0.49969120644227</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>'PUF (2)'!A26</f>
         <v>25</v>
@@ -36264,7 +37358,7 @@
         <v>0.68690571010945645</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>'PUF (2)'!A27</f>
         <v>26+29</v>
@@ -36366,7 +37460,7 @@
         <v>1.1410247282621688</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>'PUF (2)'!A28</f>
         <v>27</v>
@@ -36468,7 +37562,7 @@
         <v>0.53092596769704936</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>'PUF (2)'!A29</f>
         <v>31</v>
@@ -36570,7 +37664,7 @@
         <v>7.0191726733335216</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>'PUF (2)'!A30</f>
         <v>32</v>
@@ -36672,7 +37766,7 @@
         <v>1.6634608570078602</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>'PUF (2)'!A31</f>
         <v>34</v>
@@ -36774,7 +37868,7 @@
         <v>6.8089176751627054E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>'PUF (2)'!A32</f>
         <v>35</v>
@@ -36876,7 +37970,7 @@
         <v>0.14127927734870283</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>'PUF (2)'!A33</f>
         <v>36</v>
@@ -36978,7 +38072,7 @@
         <v>0.35942754560818369</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>'PUF (2)'!A34</f>
         <v>37</v>
@@ -37080,7 +38174,7 @@
         <v>0.96690329233740113</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>'PUF (2)'!A35</f>
         <v>38</v>
@@ -37182,7 +38276,7 @@
         <v>0.15362771665795602</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>'PUF (2)'!A36</f>
         <v>39</v>
@@ -37284,7 +38378,7 @@
         <v>0.13261893115487269</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>'PUF (2)'!A37</f>
         <v>40+71</v>
@@ -37386,7 +38480,7 @@
         <v>4.6529265454518498</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>'PUF (2)'!A38</f>
         <v>41</v>
@@ -37488,7 +38582,7 @@
         <v>1.126774857858122</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>'PUF (2)'!A39</f>
         <v>42</v>
@@ -37590,7 +38684,7 @@
         <v>3.6085062788605575</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>'PUF (2)'!A40</f>
         <v>43</v>
@@ -37692,7 +38786,7 @@
         <v>1.3333887657793757</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>'PUF (2)'!A41</f>
         <v>44+47+65</v>
@@ -37794,7 +38888,7 @@
         <v>35.607360039195967</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>'PUF (2)'!A42</f>
         <v>45+51</v>
@@ -37896,7 +38990,7 @@
         <v>1.9924319984050065</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>'PUF (2)'!A43</f>
         <v>46</v>
@@ -37998,7 +39092,7 @@
         <v>0.73543289490895136</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>'PUF (2)'!A44</f>
         <v>48</v>
@@ -38100,7 +39194,7 @@
         <v>2.9710549683215923</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>'PUF (2)'!A45</f>
         <v>49+69</v>
@@ -38202,7 +39296,7 @@
         <v>21.443621473657998</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>'PUF (2)'!A46</f>
         <v>50+53</v>
@@ -38304,7 +39398,7 @@
         <v>3.737883010069238</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>'PUF (2)'!A47</f>
         <v>52</v>
@@ -38406,7 +39500,7 @@
         <v>101.47717318221663</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>'PUF (2)'!A48</f>
         <v>54</v>
@@ -38508,7 +39602,7 @@
         <v>0.12673660708451875</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>'PUF (2)'!A49</f>
         <v>55</v>
@@ -38610,7 +39704,7 @@
         <v>2.1583961355604497</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>'PUF (2)'!A50</f>
         <v>56</v>
@@ -38712,7 +39806,7 @@
         <v>3.3710620253808163</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>'PUF (2)'!A51</f>
         <v>57</v>
@@ -38814,7 +39908,7 @@
         <v>0.65883238502894648</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>'PUF (2)'!A52</f>
         <v>58</v>
@@ -38916,7 +40010,7 @@
         <v>0.26943604867863591</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>'PUF (2)'!A53</f>
         <v>59+62+75</v>
@@ -39018,7 +40112,7 @@
         <v>1.3708178344781921</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>'PUF (2)'!A54</f>
         <v>60</v>
@@ -39120,7 +40214,7 @@
         <v>1.9927759240781644</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>'PUF (2)'!A55</f>
         <v>61+70+74+76</v>
@@ -39222,7 +40316,7 @@
         <v>38.922539985326601</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>'PUF (2)'!A56</f>
         <v>63</v>
@@ -39324,7 +40418,7 @@
         <v>0.5014867764416433</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>'PUF (2)'!A57</f>
         <v>64</v>
@@ -39426,7 +40520,7 @@
         <v>10.46351846735992</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>'PUF (2)'!A58</f>
         <v>66</v>
@@ -39528,7 +40622,7 @@
         <v>8.6347159111264435</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>'PUF (2)'!A59</f>
         <v>67</v>
@@ -39630,7 +40724,7 @@
         <v>0.23256302081945937</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>'PUF (2)'!A60</f>
         <v>68</v>
@@ -39732,7 +40826,7 @@
         <v>0.17737267771235618</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>'PUF (2)'!A61</f>
         <v>72</v>
@@ -39834,7 +40928,7 @@
         <v>0.22689380717071131</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>'PUF (2)'!A62</f>
         <v>73</v>
@@ -39936,7 +41030,7 @@
         <v>2.3352099466929936</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>'PUF (2)'!A63</f>
         <v>77</v>
@@ -40038,7 +41132,7 @@
         <v>0.31355302876782409</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>'PUF (2)'!A64</f>
         <v>78</v>
@@ -40140,7 +41234,7 @@
         <v>0.31949368383759674</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>'PUF (2)'!A65</f>
         <v>79</v>
@@ -40242,7 +41336,7 @@
         <v>0.58144084785742323</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>'PUF (2)'!A66</f>
         <v>80</v>
@@ -40344,7 +41438,7 @@
         <v>0.46336953420396465</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>'PUF (2)'!A67</f>
         <v>81</v>
@@ -40446,7 +41540,7 @@
         <v>0.41260869243247988</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>'PUF (2)'!A68</f>
         <v>82</v>
@@ -40548,7 +41642,7 @@
         <v>3.7564285950807221</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>'PUF (2)'!A69</f>
         <v>83</v>
@@ -40650,7 +41744,7 @@
         <v>10.583306585649563</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>'PUF (2)'!A70</f>
         <v>84</v>
@@ -40752,7 +41846,7 @@
         <v>16.862761427652192</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>'PUF (2)'!A71</f>
         <v>85+116</v>
@@ -40854,7 +41948,7 @@
         <v>11.173575545629436</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>'PUF (2)'!A72</f>
         <v>86+97+109+119</v>
@@ -40956,7 +42050,7 @@
         <v>14.964635671705519</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>'PUF (2)'!A73</f>
         <v>87+125</v>
@@ -41058,7 +42152,7 @@
         <v>10.41653115160678</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>'PUF (2)'!A74</f>
         <v>88</v>
@@ -41160,7 +42254,7 @@
         <v>4.4720271114118182</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>'PUF (2)'!A75</f>
         <v>89</v>
@@ -41262,7 +42356,7 @@
         <v>0.65725489709806861</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>'PUF (2)'!A76</f>
         <v>90+101+113</v>
@@ -41364,7 +42458,7 @@
         <v>48.19294984357407</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>'PUF (2)'!A77</f>
         <v>91</v>
@@ -41466,7 +42560,7 @@
         <v>4.116404857487046</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>'PUF (2)'!A78</f>
         <v>92</v>
@@ -41568,7 +42662,7 @@
         <v>9.0089113877960436</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>'PUF (2)'!A79</f>
         <v>93+100</v>
@@ -41670,7 +42764,7 @@
         <v>1.6966901977971669</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>'PUF (2)'!A80</f>
         <v>94</v>
@@ -41772,7 +42866,7 @@
         <v>0.38732933233861322</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>'PUF (2)'!A81</f>
         <v>95</v>
@@ -41874,7 +42968,7 @@
         <v>61.364408461925386</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>'PUF (2)'!A82</f>
         <v>96</v>
@@ -41976,7 +43070,7 @@
         <v>0.67987194256331562</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>'PUF (2)'!A83</f>
         <v>98</v>
@@ -42078,7 +43172,7 @@
         <v>0.20994844487681349</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>'PUF (2)'!A84</f>
         <v>99</v>
@@ -42180,7 +43274,7 @@
         <v>10.767002953690611</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>'PUF (2)'!A85</f>
         <v>102</v>
@@ -42282,7 +43376,7 @@
         <v>1.1083343236222514</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>'PUF (2)'!A86</f>
         <v>103</v>
@@ -42384,7 +43478,7 @@
         <v>0.37169167966348654</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>'PUF (2)'!A87</f>
         <v>104</v>
@@ -42486,7 +43580,7 @@
         <v>4.5854245381447001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <f>'PUF (2)'!A88</f>
         <v>105</v>
@@ -42588,7 +43682,7 @@
         <v>3.2827903289750209</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <f>'PUF (2)'!A89</f>
         <v>106</v>
@@ -42690,7 +43784,7 @@
         <v>0.52401338875801162</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <f>'PUF (2)'!A90</f>
         <v>107</v>
@@ -42792,7 +43886,7 @@
         <v>0.91887108867722289</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>'PUF (2)'!A91</f>
         <v>108+124</v>
@@ -42894,7 +43988,7 @@
         <v>0.65622948513500012</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>'PUF (2)'!A92</f>
         <v>110</v>
@@ -42996,7 +44090,7 @@
         <v>19.500986293082534</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>'PUF (2)'!A93</f>
         <v>111</v>
@@ -43098,7 +44192,7 @@
         <v>0.22263609054537509</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>'PUF (2)'!A94</f>
         <v>112</v>
@@ -43200,7 +44294,7 @@
         <v>0.56870522579289484</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>'PUF (2)'!A95</f>
         <v>114</v>
@@ -43302,7 +44396,7 @@
         <v>0.46181166358895798</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>'PUF (2)'!A96</f>
         <v>115</v>
@@ -43404,7 +44498,7 @@
         <v>2.2438556768590181</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>'PUF (2)'!A97</f>
         <v>117</v>
@@ -43506,7 +44600,7 @@
         <v>2.3162387954845434</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <f>'PUF (2)'!A98</f>
         <v>118</v>
@@ -43608,7 +44702,7 @@
         <v>11.738134099604279</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>'PUF (2)'!A99</f>
         <v>120</v>
@@ -43710,7 +44804,7 @@
         <v>0.14744817626132997</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <f>'PUF (2)'!A100</f>
         <v>121</v>
@@ -43812,7 +44906,7 @@
         <v>6.0056602235819441E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <f>'PUF (2)'!A101</f>
         <v>122</v>
@@ -43914,7 +45008,7 @@
         <v>0.40675672143404523</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>'PUF (2)'!A102</f>
         <v>123</v>
@@ -44016,7 +45110,7 @@
         <v>0.31181904691991907</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <f>'PUF (2)'!A103</f>
         <v>126</v>
@@ -44118,7 +45212,7 @@
         <v>0.11829840966474091</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <f>'PUF (2)'!A104</f>
         <v>127</v>
@@ -44220,7 +45314,7 @@
         <v>0.11648722921701321</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>'PUF (2)'!A105</f>
         <v>128+166</v>
@@ -44322,7 +45416,7 @@
         <v>0.85644100683383639</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>'PUF (2)'!A106</f>
         <v>129+138+163</v>
@@ -44424,7 +45518,7 @@
         <v>8.2445562857042347</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>'PUF (2)'!A107</f>
         <v>130</v>
@@ -44526,7 +45620,7 @@
         <v>0.65702062330844002</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <f>'PUF (2)'!A108</f>
         <v>131</v>
@@ -44628,7 +45722,7 @@
         <v>0.48105527746637555</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>'PUF (2)'!A109</f>
         <v>132</v>
@@ -44730,7 +45824,7 @@
         <v>5.593895419726814</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <f>'PUF (2)'!A110</f>
         <v>133</v>
@@ -44832,7 +45926,7 @@
         <v>0.22795448264140949</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <f>'PUF (2)'!A111</f>
         <v>134</v>
@@ -44934,7 +46028,7 @@
         <v>1.6990536219928494</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>'PUF (2)'!A112</f>
         <v>135+151</v>
@@ -45036,7 +46130,7 @@
         <v>6.1428864152070082</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <f>'PUF (2)'!A113</f>
         <v>136</v>
@@ -45138,7 +46232,7 @@
         <v>5.1837747084134707</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <f>'PUF (2)'!A114</f>
         <v>137</v>
@@ -45240,7 +46334,7 @@
         <v>0.7018531358762804</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>'PUF (2)'!A115</f>
         <v>139+140</v>
@@ -45342,7 +46436,7 @@
         <v>0.58850132515430764</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <f>'PUF (2)'!A116</f>
         <v>141</v>
@@ -45444,7 +46538,7 @@
         <v>1.6945532307467916</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <f>'PUF (2)'!A117</f>
         <v>142</v>
@@ -45546,7 +46640,7 @@
         <v>6.3862441331971984E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <f>'PUF (2)'!A118</f>
         <v>143</v>
@@ -45648,7 +46742,7 @@
         <v>0.11043416903928169</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <f>'PUF (2)'!A119</f>
         <v>144</v>
@@ -45750,7 +46844,7 @@
         <v>1.1194380971977396</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <f>'PUF (2)'!A120</f>
         <v>145</v>
@@ -45852,7 +46946,7 @@
         <v>6.0368310827814624E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121">
         <f>'PUF (2)'!A121</f>
         <v>146</v>
@@ -45954,7 +47048,7 @@
         <v>1.2795115747101582</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>'PUF (2)'!A122</f>
         <v>147+149</v>
@@ -46056,7 +47150,7 @@
         <v>13.65074700613644</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123">
         <f>'PUF (2)'!A123</f>
         <v>148</v>
@@ -46158,7 +47252,7 @@
         <v>6.6377533742604786E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124">
         <f>'PUF (2)'!A124</f>
         <v>150</v>
@@ -46260,7 +47354,7 @@
         <v>7.3969867268301431E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125">
         <f>'PUF (2)'!A125</f>
         <v>152</v>
@@ -46362,7 +47456,7 @@
         <v>9.4595942677987641E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>'PUF (2)'!A126</f>
         <v>153+168</v>
@@ -46464,7 +47558,7 @@
         <v>7.0168969373571013</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127">
         <f>'PUF (2)'!A127</f>
         <v>154</v>
@@ -46566,7 +47660,7 @@
         <v>0.21609277448987441</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128">
         <f>'PUF (2)'!A128</f>
         <v>155</v>
@@ -46668,7 +47762,7 @@
         <v>2.8071038883289639E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>'PUF (2)'!A129</f>
         <v>156+157</v>
@@ -46770,7 +47864,7 @@
         <v>0.33989798792776948</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130">
         <f>'PUF (2)'!A130</f>
         <v>158</v>
@@ -46872,7 +47966,7 @@
         <v>0.9529829981487814</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131">
         <f>'PUF (2)'!A131</f>
         <v>159</v>
@@ -46974,7 +48068,7 @@
         <v>5.325481104863846E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132">
         <f>'PUF (2)'!A132</f>
         <v>160</v>
@@ -47076,7 +48170,7 @@
         <v>0.10696128977445551</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133">
         <f>'PUF (2)'!A133</f>
         <v>161</v>
@@ -47178,7 +48272,7 @@
         <v>5.1898124113816106E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134">
         <f>'PUF (2)'!A134</f>
         <v>162</v>
@@ -47280,7 +48374,7 @@
         <v>6.6444828383639784E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135">
         <f>'PUF (2)'!A135</f>
         <v>164</v>
@@ -47382,7 +48476,7 @@
         <v>0.51181997779984145</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136">
         <f>'PUF (2)'!A136</f>
         <v>165</v>
@@ -47484,7 +48578,7 @@
         <v>6.4538561382498819E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137">
         <f>'PUF (2)'!A137</f>
         <v>167</v>
@@ -47586,7 +48680,7 @@
         <v>0.18251947459661483</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138">
         <f>'PUF (2)'!A138</f>
         <v>169</v>
@@ -47688,7 +48782,7 @@
         <v>9.85990799471885E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139">
         <f>'PUF (2)'!A139</f>
         <v>170</v>
@@ -47790,7 +48884,7 @@
         <v>0.22928682221593458</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>'PUF (2)'!A140</f>
         <v>171+173</v>
@@ -47892,7 +48986,7 @@
         <v>0.15529841258681207</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141">
         <f>'PUF (2)'!A141</f>
         <v>172</v>
@@ -47994,7 +49088,7 @@
         <v>0.1285519446166134</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142">
         <f>'PUF (2)'!A142</f>
         <v>174</v>
@@ -48096,7 +49190,7 @@
         <v>0.2335090493638442</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143">
         <f>'PUF (2)'!A143</f>
         <v>175</v>
@@ -48198,7 +49292,7 @@
         <v>5.4256828169710176E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144">
         <f>'PUF (2)'!A144</f>
         <v>176</v>
@@ -48300,7 +49394,7 @@
         <v>0.14957945070993706</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145">
         <f>'PUF (2)'!A145</f>
         <v>177</v>
@@ -48402,7 +49496,7 @@
         <v>0.22821608185599701</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146">
         <f>'PUF (2)'!A146</f>
         <v>178</v>
@@ -48504,7 +49598,7 @@
         <v>0.15426162936428503</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147">
         <f>'PUF (2)'!A147</f>
         <v>179</v>
@@ -48606,7 +49700,7 @@
         <v>0.40291611377676845</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>'PUF (2)'!A148</f>
         <v>180+193</v>
@@ -48708,7 +49802,7 @@
         <v>0.31727812563730273</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149">
         <f>'PUF (2)'!A149</f>
         <v>181</v>
@@ -48810,7 +49904,7 @@
         <v>0.16382860449112729</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150">
         <f>'PUF (2)'!A150</f>
         <v>182</v>
@@ -48912,7 +50006,7 @@
         <v>0.30456757395290962</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151">
         <f>'PUF (2)'!A151</f>
         <v>183</v>
@@ -49014,7 +50108,7 @@
         <v>0.27444424863170219</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152">
         <f>'PUF (2)'!A152</f>
         <v>184</v>
@@ -49116,7 +50210,7 @@
         <v>0.33128870389685555</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153">
         <f>'PUF (2)'!A153</f>
         <v>185</v>
@@ -49218,7 +50312,7 @@
         <v>0.14991608884179378</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154">
         <f>'PUF (2)'!A154</f>
         <v>186</v>
@@ -49320,7 +50414,7 @@
         <v>6.0022499430391757E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155">
         <f>'PUF (2)'!A155</f>
         <v>187</v>
@@ -49422,7 +50516,7 @@
         <v>0.43679216280103927</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156">
         <f>'PUF (2)'!A156</f>
         <v>188</v>
@@ -49524,7 +50618,7 @@
         <v>0.2262515907385475</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157">
         <f>'PUF (2)'!A157</f>
         <v>189</v>
@@ -49626,7 +50720,7 @@
         <v>0.19154548481279549</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158">
         <f>'PUF (2)'!A158</f>
         <v>190</v>
@@ -49728,7 +50822,7 @@
         <v>8.127113701751626E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159">
         <f>'PUF (2)'!A159</f>
         <v>191</v>
@@ -49830,7 +50924,7 @@
         <v>8.3669896247739017E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160">
         <f>'PUF (2)'!A160</f>
         <v>192</v>
@@ -49932,7 +51026,7 @@
         <v>5.1060316652874423E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161">
         <f>'PUF (2)'!A161</f>
         <v>194</v>
@@ -50034,7 +51128,7 @@
         <v>0.11947943277532051</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162">
         <f>'PUF (2)'!A162</f>
         <v>195</v>
@@ -50136,7 +51230,7 @@
         <v>8.5028422301685933E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163">
         <f>'PUF (2)'!A163</f>
         <v>196</v>
@@ -50238,7 +51332,7 @@
         <v>6.2059261577260126E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164">
         <f>'PUF (2)'!A164</f>
         <v>197</v>
@@ -50340,7 +51434,7 @@
         <v>7.8024620366790545E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>'PUF (2)'!A165</f>
         <v>198+199</v>
@@ -50442,7 +51536,7 @@
         <v>0.10189214484497211</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166">
         <f>'PUF (2)'!A166</f>
         <v>200</v>
@@ -50544,7 +51638,7 @@
         <v>6.0875862067363846E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167">
         <f>'PUF (2)'!A167</f>
         <v>201</v>
@@ -50646,7 +51740,7 @@
         <v>3.6567120913403021E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168">
         <f>'PUF (2)'!A168</f>
         <v>202</v>
@@ -50748,7 +51842,7 @@
         <v>5.405616584683709E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169">
         <f>'PUF (2)'!A169</f>
         <v>203</v>
@@ -50850,7 +51944,7 @@
         <v>6.4916276939425616E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170">
         <f>'PUF (2)'!A170</f>
         <v>205</v>
@@ -50952,7 +52046,7 @@
         <v>8.2014308759909005E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171">
         <f>'PUF (2)'!A171</f>
         <v>206</v>
@@ -51054,7 +52148,7 @@
         <v>0.18343251979963821</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172">
         <f>'PUF (2)'!A172</f>
         <v>207</v>
@@ -51156,7 +52250,7 @@
         <v>6.0023592625673076E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173">
         <f>'PUF (2)'!A173</f>
         <v>208</v>
@@ -51258,7 +52352,7 @@
         <v>5.2577149351100354E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174">
         <f>'PUF (2)'!A174</f>
         <v>209</v>
@@ -51360,7 +52454,7 @@
         <v>0.17056450636107534</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B175">
         <f>+SUM(B3:B174)</f>
         <v>145.17019355454619</v>
@@ -51391,7 +52485,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="37"/>
-        <v>810.83390646517671</v>
+        <v>810.8339064651766</v>
       </c>
       <c r="J175">
         <f t="shared" ref="J175" si="38">+SUM(J3:J174)</f>
@@ -51435,7 +52529,7 @@
       </c>
       <c r="W175">
         <f t="shared" si="41"/>
-        <v>810.83390646517671</v>
+        <v>810.8339064651766</v>
       </c>
       <c r="X175">
         <f t="shared" ref="X175:Z175" si="42">SUM(X3:X174)</f>
@@ -51464,9 +52558,9 @@
       <selection activeCell="S1" sqref="S1:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -51991,7 +53085,7 @@
         <v xml:space="preserve">PCB209 </v>
       </c>
     </row>
-    <row r="2" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f t="array" ref="A2:A5">TRANSPOSE(WD!P2:S2)</f>
         <v>ST001</v>
@@ -52517,7 +53611,7 @@
         <v>0.18813467483325036</v>
       </c>
     </row>
-    <row r="3" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>ST002</v>
       </c>
@@ -53041,7 +54135,7 @@
         <v>0.20679153614044776</v>
       </c>
     </row>
-    <row r="4" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>ST003</v>
       </c>
@@ -53565,7 +54659,7 @@
         <v>0.16142208900240618</v>
       </c>
     </row>
-    <row r="5" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>ST004</v>
       </c>
@@ -54098,13 +55192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C069874-0A48-934C-A613-FA4DEEDD7B45}">
   <dimension ref="A1:FR5"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
+    <sheetView topLeftCell="AN1" zoomScale="156" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -54629,7 +55723,7 @@
         <v xml:space="preserve">PCB209 </v>
       </c>
     </row>
-    <row r="2" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f t="array" ref="A2:A5">TRANSPOSE(WD!T2:W2)</f>
         <v>ROT001</v>
@@ -55156,7 +56250,7 @@
         <v>0.15527232112815029</v>
       </c>
     </row>
-    <row r="3" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>ROT002</v>
       </c>
@@ -55680,7 +56774,7 @@
         <v>0.28235677991879155</v>
       </c>
     </row>
-    <row r="4" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>ROT003</v>
       </c>
@@ -56204,7 +57298,7 @@
         <v>0.2456722922247635</v>
       </c>
     </row>
-    <row r="5" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:174" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>ROT004</v>
       </c>
